--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1457.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1457.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.416897456579015</v>
+        <v>1.163737893104553</v>
       </c>
       <c r="B1">
-        <v>1.560515420064387</v>
+        <v>2.660921335220337</v>
       </c>
       <c r="C1">
-        <v>1.845288549870607</v>
+        <v>4.235062122344971</v>
       </c>
       <c r="D1">
-        <v>3.263291286117167</v>
+        <v>3.415743350982666</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.2118079662323</v>
       </c>
     </row>
   </sheetData>
